--- a/data-raw/SusitnaEG regs.xlsx
+++ b/data-raw/SusitnaEG regs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\SusitnaEG\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\RTS\Reimer\SusitnaEG\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A27D41-6782-4F17-923F-5A42125477C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2558A91-E7ED-4C22-98AF-B9F2821D7769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-14055" windowWidth="21840" windowHeight="37920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reg bins" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Yentna</t>
   </si>
@@ -48,15 +48,24 @@
   <si>
     <t>Updated 10/23/2023</t>
   </si>
+  <si>
+    <t>Updated 2/5/2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -584,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1401,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2024</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
